--- a/80 zadan/w80zae/w80zae/zadania/68/zadanie_68.xlsx
+++ b/80 zadan/w80zae/w80zae/zadania/68/zadanie_68.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Matura\80 zadan\w80zae\w80zae\zadania\68\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="dane" sheetId="2" r:id="rId1"/>
     <sheet name="rozwiazanie" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,12 +142,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -230,6 +238,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-244E-49A0-9DE9-F73C0C554278}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -290,6 +303,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-244E-49A0-9DE9-F73C0C554278}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -350,6 +368,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-244E-49A0-9DE9-F73C0C554278}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -410,6 +433,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-244E-49A0-9DE9-F73C0C554278}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -419,7 +447,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="46110592"/>
         <c:axId val="66957312"/>
@@ -447,9 +474,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -498,7 +525,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -521,7 +547,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -594,7 +619,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -602,6 +627,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -621,7 +669,6 @@
                 </a:rPr>
                 <a:t>Słupsk</a:t>
               </a:r>
-              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -656,7 +703,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -664,6 +711,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -683,7 +753,6 @@
                 </a:rPr>
                 <a:t>Lębork</a:t>
               </a:r>
-              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -718,7 +787,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -726,6 +795,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -745,7 +837,6 @@
                 </a:rPr>
                 <a:t>Ustka</a:t>
               </a:r>
-              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -780,7 +871,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -788,6 +879,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -807,7 +921,6 @@
                 </a:rPr>
                 <a:t>Łeba</a:t>
               </a:r>
-              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -892,7 +1005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,7 +1040,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
